--- a/content/project/pandemic-burden-2020/tables.xlsx
+++ b/content/project/pandemic-burden-2020/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justiningels/Documents/GitHub/academic-kickstart/content/project/pandemic-burden-2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AEFAA9-CD7C-0148-9EC8-59A147EA90E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CEB287-31CC-D24D-BE74-F8127DEA196E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19380" yWindow="980" windowWidth="29620" windowHeight="18540" activeTab="1" xr2:uid="{4652F6ED-3565-7742-A44D-9E2E8A168F21}"/>
+    <workbookView xWindow="19360" yWindow="980" windowWidth="29620" windowHeight="18540" activeTab="1" xr2:uid="{4652F6ED-3565-7742-A44D-9E2E8A168F21}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -647,6 +647,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="48.5" customWidth="1"/>
     <col min="3" max="3" width="33.33203125" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
